--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2527,28 +2527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3596.728687262021</v>
+        <v>3721.70249771699</v>
       </c>
       <c r="AB2" t="n">
-        <v>4921.202866383036</v>
+        <v>5092.197547302933</v>
       </c>
       <c r="AC2" t="n">
-        <v>4451.530171766856</v>
+        <v>4606.205360332295</v>
       </c>
       <c r="AD2" t="n">
-        <v>3596728.687262021</v>
+        <v>3721702.49771699</v>
       </c>
       <c r="AE2" t="n">
-        <v>4921202.866383036</v>
+        <v>5092197.547302933</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.580922025867259e-07</v>
+        <v>1.450647443748131e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>4451530.171766857</v>
+        <v>4606205.360332294</v>
       </c>
     </row>
     <row r="3">
@@ -2633,28 +2633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1199.868322192114</v>
+        <v>1272.684370769609</v>
       </c>
       <c r="AB3" t="n">
-        <v>1641.7127728777</v>
+        <v>1741.34290295877</v>
       </c>
       <c r="AC3" t="n">
-        <v>1485.0300099926</v>
+        <v>1575.151580290498</v>
       </c>
       <c r="AD3" t="n">
-        <v>1199868.322192114</v>
+        <v>1272684.370769609</v>
       </c>
       <c r="AE3" t="n">
-        <v>1641712.7728777</v>
+        <v>1741342.90295877</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.614794728057203e-06</v>
+        <v>2.729890607760637e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.54722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1485030.0099926</v>
+        <v>1575151.580290498</v>
       </c>
     </row>
     <row r="4">
@@ -2739,28 +2739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>900.4863530057137</v>
+        <v>962.887917378627</v>
       </c>
       <c r="AB4" t="n">
-        <v>1232.085154836546</v>
+        <v>1317.465728174292</v>
       </c>
       <c r="AC4" t="n">
-        <v>1114.496676901321</v>
+        <v>1191.728648152099</v>
       </c>
       <c r="AD4" t="n">
-        <v>900486.3530057137</v>
+        <v>962887.917378627</v>
       </c>
       <c r="AE4" t="n">
-        <v>1232085.154836546</v>
+        <v>1317465.728174292</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.896059904287603e-06</v>
+        <v>3.205383343487668e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.68611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1114496.676901321</v>
+        <v>1191728.648152099</v>
       </c>
     </row>
     <row r="5">
@@ -2845,28 +2845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>764.0428259947778</v>
+        <v>816.1152470176817</v>
       </c>
       <c r="AB5" t="n">
-        <v>1045.397101716604</v>
+        <v>1116.644885433224</v>
       </c>
       <c r="AC5" t="n">
-        <v>945.6258695528181</v>
+        <v>1010.073864788416</v>
       </c>
       <c r="AD5" t="n">
-        <v>764042.8259947778</v>
+        <v>816115.2470176817</v>
       </c>
       <c r="AE5" t="n">
-        <v>1045397.101716604</v>
+        <v>1116644.885433224</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.051426819580847e-06</v>
+        <v>3.468038822507008e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.87638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>945625.8695528181</v>
+        <v>1010073.864788416</v>
       </c>
     </row>
     <row r="6">
@@ -2951,28 +2951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>690.3627686035217</v>
+        <v>742.2645974258336</v>
       </c>
       <c r="AB6" t="n">
-        <v>944.584796659167</v>
+        <v>1015.599168600939</v>
       </c>
       <c r="AC6" t="n">
-        <v>854.4349493991037</v>
+        <v>918.6718093520506</v>
       </c>
       <c r="AD6" t="n">
-        <v>690362.7686035216</v>
+        <v>742264.5974258336</v>
       </c>
       <c r="AE6" t="n">
-        <v>944584.7966591669</v>
+        <v>1015599.168600939</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.142166933489202e-06</v>
+        <v>3.621439487248821e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.458333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>854434.9493991038</v>
+        <v>918671.8093520505</v>
       </c>
     </row>
     <row r="7">
@@ -3057,28 +3057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>677.138014713665</v>
+        <v>729.039843535977</v>
       </c>
       <c r="AB7" t="n">
-        <v>926.4901049521001</v>
+        <v>997.5044768938727</v>
       </c>
       <c r="AC7" t="n">
-        <v>838.0671896725003</v>
+        <v>902.304049625447</v>
       </c>
       <c r="AD7" t="n">
-        <v>677138.014713665</v>
+        <v>729039.843535977</v>
       </c>
       <c r="AE7" t="n">
-        <v>926490.1049521001</v>
+        <v>997504.4768938727</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.15806833608729e-06</v>
+        <v>3.648321597308077e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.388888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>838067.1896725002</v>
+        <v>902304.049625447</v>
       </c>
     </row>
   </sheetData>
@@ -3354,28 +3354,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2163.472859775458</v>
+        <v>2264.29319735949</v>
       </c>
       <c r="AB2" t="n">
-        <v>2960.159012431136</v>
+        <v>3098.105846193166</v>
       </c>
       <c r="AC2" t="n">
-        <v>2677.645590893976</v>
+        <v>2802.426972451237</v>
       </c>
       <c r="AD2" t="n">
-        <v>2163472.859775458</v>
+        <v>2264293.197359491</v>
       </c>
       <c r="AE2" t="n">
-        <v>2960159.012431136</v>
+        <v>3098105.846193166</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.131110917084849e-06</v>
+        <v>1.958847714673497e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.53055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>2677645.590893976</v>
+        <v>2802426.972451237</v>
       </c>
     </row>
     <row r="3">
@@ -3460,28 +3460,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>924.5712983336463</v>
+        <v>984.9441131962149</v>
       </c>
       <c r="AB3" t="n">
-        <v>1265.03923958702</v>
+        <v>1347.6439883426</v>
       </c>
       <c r="AC3" t="n">
-        <v>1144.305670054558</v>
+        <v>1219.026737525399</v>
       </c>
       <c r="AD3" t="n">
-        <v>924571.2983336463</v>
+        <v>984944.1131962149</v>
       </c>
       <c r="AE3" t="n">
-        <v>1265039.23958702</v>
+        <v>1347643.9883426</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.833622100411063e-06</v>
+        <v>3.175450264614142e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.43055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1144305.670054558</v>
+        <v>1219026.737525399</v>
       </c>
     </row>
     <row r="4">
@@ -3566,28 +3566,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>716.5804597013126</v>
+        <v>766.9480475745928</v>
       </c>
       <c r="AB4" t="n">
-        <v>980.4569982620641</v>
+        <v>1049.372154051438</v>
       </c>
       <c r="AC4" t="n">
-        <v>886.8835584279717</v>
+        <v>949.2215484718359</v>
       </c>
       <c r="AD4" t="n">
-        <v>716580.4597013126</v>
+        <v>766948.0475745928</v>
       </c>
       <c r="AE4" t="n">
-        <v>980456.9982620641</v>
+        <v>1049372.154051438</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.091687433061508e-06</v>
+        <v>3.622365487041317e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.02083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>886883.5584279717</v>
+        <v>949221.5484718359</v>
       </c>
     </row>
     <row r="5">
@@ -3672,28 +3672,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>628.9451345273236</v>
+        <v>679.3979737466243</v>
       </c>
       <c r="AB5" t="n">
-        <v>860.5504801613283</v>
+        <v>929.5822806033511</v>
       </c>
       <c r="AC5" t="n">
-        <v>778.4207501249148</v>
+        <v>840.8642524194915</v>
       </c>
       <c r="AD5" t="n">
-        <v>628945.1345273237</v>
+        <v>679397.9737466243</v>
       </c>
       <c r="AE5" t="n">
-        <v>860550.4801613283</v>
+        <v>929582.2806033512</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.201553843686961e-06</v>
+        <v>3.812631148986922e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.520833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>778420.7501249148</v>
+        <v>840864.2524194915</v>
       </c>
     </row>
     <row r="6">
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>630.7333836378274</v>
+        <v>681.186222857128</v>
       </c>
       <c r="AB6" t="n">
-        <v>862.9972414863023</v>
+        <v>932.0290419283251</v>
       </c>
       <c r="AC6" t="n">
-        <v>780.6339959830846</v>
+        <v>843.0774982776612</v>
       </c>
       <c r="AD6" t="n">
-        <v>630733.3836378274</v>
+        <v>681186.222857128</v>
       </c>
       <c r="AE6" t="n">
-        <v>862997.2414863023</v>
+        <v>932029.0419283251</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.203364828477491e-06</v>
+        <v>3.815767396161849e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.512499999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>780633.9959830845</v>
+        <v>843077.4982776613</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>653.559426678367</v>
+        <v>708.2516203546593</v>
       </c>
       <c r="AB2" t="n">
-        <v>894.2288405883161</v>
+        <v>969.0611128255135</v>
       </c>
       <c r="AC2" t="n">
-        <v>808.8848951006266</v>
+        <v>876.57528030326</v>
       </c>
       <c r="AD2" t="n">
-        <v>653559.426678367</v>
+        <v>708251.6203546593</v>
       </c>
       <c r="AE2" t="n">
-        <v>894228.8405883161</v>
+        <v>969061.1128255136</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.03073078264549e-06</v>
+        <v>3.842579633152858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.51666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>808884.8951006266</v>
+        <v>876575.28030326</v>
       </c>
     </row>
     <row r="3">
@@ -4181,28 +4181,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>545.3070150553743</v>
+        <v>590.9691839735228</v>
       </c>
       <c r="AB3" t="n">
-        <v>746.113115246393</v>
+        <v>808.5901092329218</v>
       </c>
       <c r="AC3" t="n">
-        <v>674.9051267036107</v>
+        <v>731.4194040710771</v>
       </c>
       <c r="AD3" t="n">
-        <v>545307.0150553744</v>
+        <v>590969.1839735229</v>
       </c>
       <c r="AE3" t="n">
-        <v>746113.115246393</v>
+        <v>808590.1092329219</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.221864329233319e-06</v>
+        <v>4.204245433271316e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.52638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>674905.1267036106</v>
+        <v>731419.4040710771</v>
       </c>
     </row>
   </sheetData>
@@ -4478,28 +4478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1025.668756463983</v>
+        <v>1091.974579716197</v>
       </c>
       <c r="AB2" t="n">
-        <v>1403.36524190602</v>
+        <v>1494.087794486172</v>
       </c>
       <c r="AC2" t="n">
-        <v>1269.430032853997</v>
+        <v>1351.494152345801</v>
       </c>
       <c r="AD2" t="n">
-        <v>1025668.756463983</v>
+        <v>1091974.579716197</v>
       </c>
       <c r="AE2" t="n">
-        <v>1403365.24190602</v>
+        <v>1494087.794486172</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.659195204628015e-06</v>
+        <v>3.022693327478579e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.48611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1269430.032853997</v>
+        <v>1351494.152345801</v>
       </c>
     </row>
     <row r="3">
@@ -4584,28 +4584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>578.3000762301954</v>
+        <v>625.6979787790372</v>
       </c>
       <c r="AB3" t="n">
-        <v>791.2556770969144</v>
+        <v>856.1075784121214</v>
       </c>
       <c r="AC3" t="n">
-        <v>715.7393458091018</v>
+        <v>774.4018726830008</v>
       </c>
       <c r="AD3" t="n">
-        <v>578300.0762301954</v>
+        <v>625697.9787790371</v>
       </c>
       <c r="AE3" t="n">
-        <v>791255.6770969144</v>
+        <v>856107.5784121214</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.229981553787842e-06</v>
+        <v>4.062542095247936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.03333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>715739.3458091018</v>
+        <v>774401.8726830008</v>
       </c>
     </row>
     <row r="4">
@@ -4690,28 +4690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>564.5301352787737</v>
+        <v>621.3392382434652</v>
       </c>
       <c r="AB4" t="n">
-        <v>772.4150364002588</v>
+        <v>850.1437573172909</v>
       </c>
       <c r="AC4" t="n">
-        <v>698.6968294175298</v>
+        <v>769.0072303031853</v>
       </c>
       <c r="AD4" t="n">
-        <v>564530.1352787737</v>
+        <v>621339.2382434652</v>
       </c>
       <c r="AE4" t="n">
-        <v>772415.0364002588</v>
+        <v>850143.7573172909</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.242225347899088e-06</v>
+        <v>4.084847629075334e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.979166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>698696.8294175297</v>
+        <v>769007.2303031853</v>
       </c>
     </row>
   </sheetData>
@@ -4987,28 +4987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>538.2315553886519</v>
+        <v>590.8768629904636</v>
       </c>
       <c r="AB2" t="n">
-        <v>736.432159183133</v>
+        <v>808.463791590986</v>
       </c>
       <c r="AC2" t="n">
-        <v>666.148107499721</v>
+        <v>731.3051420075997</v>
       </c>
       <c r="AD2" t="n">
-        <v>538231.5553886519</v>
+        <v>590876.8629904636</v>
       </c>
       <c r="AE2" t="n">
-        <v>736432.1591831329</v>
+        <v>808463.7915909861</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.155782328798141e-06</v>
+        <v>4.224638770369825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.26805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>666148.107499721</v>
+        <v>731305.1420075997</v>
       </c>
     </row>
     <row r="3">
@@ -5093,28 +5093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>542.7466154489583</v>
+        <v>595.3919230507701</v>
       </c>
       <c r="AB3" t="n">
-        <v>742.6098635480358</v>
+        <v>814.6414959558889</v>
       </c>
       <c r="AC3" t="n">
-        <v>671.7362204305001</v>
+        <v>736.8932549383788</v>
       </c>
       <c r="AD3" t="n">
-        <v>542746.6154489584</v>
+        <v>595391.9230507701</v>
       </c>
       <c r="AE3" t="n">
-        <v>742609.8635480358</v>
+        <v>814641.4959558889</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.156132123107536e-06</v>
+        <v>4.225324254512347e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.26666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>671736.2204305001</v>
+        <v>736893.2549383788</v>
       </c>
     </row>
   </sheetData>
@@ -5390,28 +5390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2450.058743076485</v>
+        <v>2551.815807976647</v>
       </c>
       <c r="AB2" t="n">
-        <v>3352.278461240648</v>
+        <v>3491.506966641928</v>
       </c>
       <c r="AC2" t="n">
-        <v>3032.341709852084</v>
+        <v>3158.282442106295</v>
       </c>
       <c r="AD2" t="n">
-        <v>2450058.743076486</v>
+        <v>2551815.807976647</v>
       </c>
       <c r="AE2" t="n">
-        <v>3352278.461240648</v>
+        <v>3491506.966641928</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.057536900382104e-06</v>
+        <v>1.819472363122398e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.64305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>3032341.709852084</v>
+        <v>3158282.442106294</v>
       </c>
     </row>
     <row r="3">
@@ -5496,28 +5496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>989.2866113679704</v>
+        <v>1050.340850308067</v>
       </c>
       <c r="AB3" t="n">
-        <v>1353.585585918695</v>
+        <v>1437.122689159457</v>
       </c>
       <c r="AC3" t="n">
-        <v>1224.401277367916</v>
+        <v>1299.96571672044</v>
       </c>
       <c r="AD3" t="n">
-        <v>989286.6113679704</v>
+        <v>1050340.850308067</v>
       </c>
       <c r="AE3" t="n">
-        <v>1353585.585918695</v>
+        <v>1437122.689159457</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.773778480912425e-06</v>
+        <v>3.051752542304008e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.70972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1224401.277367915</v>
+        <v>1299965.71672044</v>
       </c>
     </row>
     <row r="4">
@@ -5602,28 +5602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>763.6048740946929</v>
+        <v>814.3981551987528</v>
       </c>
       <c r="AB4" t="n">
-        <v>1044.797876605834</v>
+        <v>1114.29548465382</v>
       </c>
       <c r="AC4" t="n">
-        <v>945.0838336456021</v>
+        <v>1007.948687521994</v>
       </c>
       <c r="AD4" t="n">
-        <v>763604.874094693</v>
+        <v>814398.1551987528</v>
       </c>
       <c r="AE4" t="n">
-        <v>1044797.876605834</v>
+        <v>1114295.48465382</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.03909745436425e-06</v>
+        <v>3.508228850065164e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>945083.8336456021</v>
+        <v>1007948.687521994</v>
       </c>
     </row>
     <row r="5">
@@ -5708,28 +5708,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>650.9632180705846</v>
+        <v>701.841750520665</v>
       </c>
       <c r="AB5" t="n">
-        <v>890.6765934345079</v>
+        <v>960.2908461351436</v>
       </c>
       <c r="AC5" t="n">
-        <v>805.6716694295678</v>
+        <v>868.6420355566721</v>
       </c>
       <c r="AD5" t="n">
-        <v>650963.2180705846</v>
+        <v>701841.750520665</v>
       </c>
       <c r="AE5" t="n">
-        <v>890676.593434508</v>
+        <v>960290.8461351437</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.175495934515357e-06</v>
+        <v>3.742899871867968e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.548611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>805671.6694295679</v>
+        <v>868642.0355566721</v>
       </c>
     </row>
     <row r="6">
@@ -5814,28 +5814,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>642.0313745050245</v>
+        <v>692.7393147545129</v>
       </c>
       <c r="AB6" t="n">
-        <v>878.4556510229809</v>
+        <v>947.8364919487697</v>
       </c>
       <c r="AC6" t="n">
-        <v>794.6170766095968</v>
+        <v>857.37630745405</v>
       </c>
       <c r="AD6" t="n">
-        <v>642031.3745050245</v>
+        <v>692739.3147545129</v>
       </c>
       <c r="AE6" t="n">
-        <v>878455.6510229809</v>
+        <v>947836.4919487697</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.190451908216136e-06</v>
+        <v>3.768631343556873e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.483333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>794617.0766095967</v>
+        <v>857376.3074540499</v>
       </c>
     </row>
   </sheetData>
@@ -6111,28 +6111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>538.064554878037</v>
+        <v>598.2162015493428</v>
       </c>
       <c r="AB2" t="n">
-        <v>736.2036617169672</v>
+        <v>818.5057983960099</v>
       </c>
       <c r="AC2" t="n">
-        <v>665.9414175110279</v>
+        <v>740.3887537771971</v>
       </c>
       <c r="AD2" t="n">
-        <v>538064.5548780371</v>
+        <v>598216.2015493428</v>
       </c>
       <c r="AE2" t="n">
-        <v>736203.6617169672</v>
+        <v>818505.79839601</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.083403631458726e-06</v>
+        <v>4.176516708462631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.93194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>665941.4175110279</v>
+        <v>740388.7537771971</v>
       </c>
     </row>
   </sheetData>
@@ -6408,28 +6408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1503.568719519942</v>
+        <v>1582.082733474461</v>
       </c>
       <c r="AB2" t="n">
-        <v>2057.249054817557</v>
+        <v>2164.675392503965</v>
       </c>
       <c r="AC2" t="n">
-        <v>1860.908092392952</v>
+        <v>1958.081811184381</v>
       </c>
       <c r="AD2" t="n">
-        <v>1503568.719519942</v>
+        <v>1582082.733474461</v>
       </c>
       <c r="AE2" t="n">
-        <v>2057249.054817558</v>
+        <v>2164675.392503965</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.369086154133986e-06</v>
+        <v>2.42475331151906e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.775</v>
       </c>
       <c r="AH2" t="n">
-        <v>1860908.092392952</v>
+        <v>1958081.811184381</v>
       </c>
     </row>
     <row r="3">
@@ -6514,28 +6514,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>735.5784776800057</v>
+        <v>794.3786472913239</v>
       </c>
       <c r="AB3" t="n">
-        <v>1006.450924593913</v>
+        <v>1086.90391073652</v>
       </c>
       <c r="AC3" t="n">
-        <v>910.3966609134133</v>
+        <v>983.1713269750458</v>
       </c>
       <c r="AD3" t="n">
-        <v>735578.4776800057</v>
+        <v>794378.6472913239</v>
       </c>
       <c r="AE3" t="n">
-        <v>1006450.924593913</v>
+        <v>1086903.91073652</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.026185312268026e-06</v>
+        <v>3.588524747575794e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.65833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>910396.6609134133</v>
+        <v>983171.3269750457</v>
       </c>
     </row>
     <row r="4">
@@ -6620,28 +6620,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>596.0235620516503</v>
+        <v>645.0948207732249</v>
       </c>
       <c r="AB4" t="n">
-        <v>815.5057323028393</v>
+        <v>882.6471933568436</v>
       </c>
       <c r="AC4" t="n">
-        <v>737.6750097813394</v>
+        <v>798.4085840259822</v>
       </c>
       <c r="AD4" t="n">
-        <v>596023.5620516503</v>
+        <v>645094.8207732249</v>
       </c>
       <c r="AE4" t="n">
-        <v>815505.7323028393</v>
+        <v>882647.1933568435</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.224901053890199e-06</v>
+        <v>3.940465091939378e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.706944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>737675.0097813394</v>
+        <v>798408.5840259822</v>
       </c>
     </row>
     <row r="5">
@@ -6726,28 +6726,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>597.475939908393</v>
+        <v>646.5471986299676</v>
       </c>
       <c r="AB5" t="n">
-        <v>817.4929397608237</v>
+        <v>884.6344008148279</v>
       </c>
       <c r="AC5" t="n">
-        <v>739.4725609485968</v>
+        <v>800.2061351932397</v>
       </c>
       <c r="AD5" t="n">
-        <v>597475.939908393</v>
+        <v>646547.1986299676</v>
       </c>
       <c r="AE5" t="n">
-        <v>817492.9397608236</v>
+        <v>884634.4008148279</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.227388887901119e-06</v>
+        <v>3.94487123083595e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.695833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>739472.5609485968</v>
+        <v>800206.1351932397</v>
       </c>
     </row>
   </sheetData>
@@ -7023,28 +7023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1915.198631514136</v>
+        <v>2005.218356758567</v>
       </c>
       <c r="AB2" t="n">
-        <v>2620.459260238075</v>
+        <v>2743.628219707497</v>
       </c>
       <c r="AC2" t="n">
-        <v>2370.366306278624</v>
+        <v>2481.780193125003</v>
       </c>
       <c r="AD2" t="n">
-        <v>1915198.631514136</v>
+        <v>2005218.356758567</v>
       </c>
       <c r="AE2" t="n">
-        <v>2620459.260238075</v>
+        <v>2743628.219707496</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.207059978823593e-06</v>
+        <v>2.105007203551383e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.53055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>2370366.306278624</v>
+        <v>2481780.193125003</v>
       </c>
     </row>
     <row r="3">
@@ -7129,28 +7129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>864.0890953716439</v>
+        <v>914.1001433493232</v>
       </c>
       <c r="AB3" t="n">
-        <v>1182.284821207932</v>
+        <v>1250.712143382715</v>
       </c>
       <c r="AC3" t="n">
-        <v>1069.449217219014</v>
+        <v>1131.345931803786</v>
       </c>
       <c r="AD3" t="n">
-        <v>864089.0953716439</v>
+        <v>914100.1433493232</v>
       </c>
       <c r="AE3" t="n">
-        <v>1182284.821207932</v>
+        <v>1250712.143382715</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.894153315248483e-06</v>
+        <v>3.303237985832935e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.17083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1069449.217219014</v>
+        <v>1131345.931803786</v>
       </c>
     </row>
     <row r="4">
@@ -7235,28 +7235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>661.2165053389505</v>
+        <v>711.2274638080786</v>
       </c>
       <c r="AB4" t="n">
-        <v>904.7055934181953</v>
+        <v>973.1327931234297</v>
       </c>
       <c r="AC4" t="n">
-        <v>818.3617613446374</v>
+        <v>880.258365148182</v>
       </c>
       <c r="AD4" t="n">
-        <v>661216.5053389504</v>
+        <v>711227.4638080786</v>
       </c>
       <c r="AE4" t="n">
-        <v>904705.5934181954</v>
+        <v>973132.7931234296</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.146443019266137e-06</v>
+        <v>3.743209199903501e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.858333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>818361.7613446375</v>
+        <v>880258.3651481819</v>
       </c>
     </row>
     <row r="5">
@@ -7341,28 +7341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>616.9874428616406</v>
+        <v>666.9984013307688</v>
       </c>
       <c r="AB5" t="n">
-        <v>844.1894388882159</v>
+        <v>912.61663859345</v>
       </c>
       <c r="AC5" t="n">
-        <v>763.6211836680429</v>
+        <v>825.5177874715874</v>
       </c>
       <c r="AD5" t="n">
-        <v>616987.4428616406</v>
+        <v>666998.4013307688</v>
       </c>
       <c r="AE5" t="n">
-        <v>844189.4388882159</v>
+        <v>912616.6385934501</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.211495980386631e-06</v>
+        <v>3.856655883724837e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.568055555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>763621.1836680429</v>
+        <v>825517.7874715874</v>
       </c>
     </row>
     <row r="6">
@@ -7447,28 +7447,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>619.8729625602734</v>
+        <v>669.8839210294017</v>
       </c>
       <c r="AB6" t="n">
-        <v>848.1375342400302</v>
+        <v>916.5647339452643</v>
       </c>
       <c r="AC6" t="n">
-        <v>767.1924783406666</v>
+        <v>829.089082144211</v>
       </c>
       <c r="AD6" t="n">
-        <v>619872.9625602735</v>
+        <v>669883.9210294017</v>
       </c>
       <c r="AE6" t="n">
-        <v>848137.5342400302</v>
+        <v>916564.7339452642</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.211648329241714e-06</v>
+        <v>3.85692156682512e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.568055555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>767192.4783406666</v>
+        <v>829089.082144211</v>
       </c>
     </row>
   </sheetData>
@@ -7744,28 +7744,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3155.826549814009</v>
+        <v>3269.452977030331</v>
       </c>
       <c r="AB2" t="n">
-        <v>4317.941110697127</v>
+        <v>4473.409801258688</v>
       </c>
       <c r="AC2" t="n">
-        <v>3905.84287136044</v>
+        <v>4046.473848296479</v>
       </c>
       <c r="AD2" t="n">
-        <v>3155826.549814009</v>
+        <v>3269452.977030331</v>
       </c>
       <c r="AE2" t="n">
-        <v>4317941.110697127</v>
+        <v>4473409.801258688</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.224486198797382e-07</v>
+        <v>1.568101517241433e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.14027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>3905842.87136044</v>
+        <v>4046473.848296478</v>
       </c>
     </row>
     <row r="3">
@@ -7850,28 +7850,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1130.658365449627</v>
+        <v>1192.597666046702</v>
       </c>
       <c r="AB3" t="n">
-        <v>1547.016656734831</v>
+        <v>1631.764740380836</v>
       </c>
       <c r="AC3" t="n">
-        <v>1399.371558267572</v>
+        <v>1476.031403755086</v>
       </c>
       <c r="AD3" t="n">
-        <v>1130658.365449627</v>
+        <v>1192597.666046703</v>
       </c>
       <c r="AE3" t="n">
-        <v>1547016.65673483</v>
+        <v>1631764.740380836</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.665789568945907e-06</v>
+        <v>2.831731864707629e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.25972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1399371.558267572</v>
+        <v>1476031.403755086</v>
       </c>
     </row>
     <row r="4">
@@ -7956,28 +7956,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>853.1952672776599</v>
+        <v>904.9677347514785</v>
       </c>
       <c r="AB4" t="n">
-        <v>1167.379405007967</v>
+        <v>1238.216779045711</v>
       </c>
       <c r="AC4" t="n">
-        <v>1055.966353021291</v>
+        <v>1120.043107501752</v>
       </c>
       <c r="AD4" t="n">
-        <v>853195.26727766</v>
+        <v>904967.7347514784</v>
       </c>
       <c r="AE4" t="n">
-        <v>1167379.405007967</v>
+        <v>1238216.779045711</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.942832961238817e-06</v>
+        <v>3.302687270172775e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.5125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1055966.353021291</v>
+        <v>1120043.107501752</v>
       </c>
     </row>
     <row r="5">
@@ -8062,28 +8062,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>726.263772975224</v>
+        <v>777.9508995944709</v>
       </c>
       <c r="AB5" t="n">
-        <v>993.7061346810611</v>
+        <v>1064.426741596607</v>
       </c>
       <c r="AC5" t="n">
-        <v>898.8682158624193</v>
+        <v>962.839347310941</v>
       </c>
       <c r="AD5" t="n">
-        <v>726263.7729752241</v>
+        <v>777950.8995944709</v>
       </c>
       <c r="AE5" t="n">
-        <v>993706.1346810611</v>
+        <v>1064426.741596607</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.092383454849162e-06</v>
+        <v>3.556913197645202e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.761111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>898868.2158624193</v>
+        <v>962839.347310941</v>
       </c>
     </row>
     <row r="6">
@@ -8168,28 +8168,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>665.7685422850011</v>
+        <v>717.2850767036555</v>
       </c>
       <c r="AB6" t="n">
-        <v>910.9338911894788</v>
+        <v>981.421086330178</v>
       </c>
       <c r="AC6" t="n">
-        <v>823.9956391181003</v>
+        <v>887.7556352839708</v>
       </c>
       <c r="AD6" t="n">
-        <v>665768.5422850011</v>
+        <v>717285.0767036555</v>
       </c>
       <c r="AE6" t="n">
-        <v>910933.8911894788</v>
+        <v>981421.086330178</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.166202872540798e-06</v>
+        <v>3.682401315237295e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.429166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>823995.6391181003</v>
+        <v>887755.6352839709</v>
       </c>
     </row>
     <row r="7">
@@ -8274,28 +8274,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>665.8933119054246</v>
+        <v>717.4098463240792</v>
       </c>
       <c r="AB7" t="n">
-        <v>911.1046064885894</v>
+        <v>981.5918016292886</v>
       </c>
       <c r="AC7" t="n">
-        <v>824.1500615886644</v>
+        <v>887.9100577545349</v>
       </c>
       <c r="AD7" t="n">
-        <v>665893.3119054247</v>
+        <v>717409.8463240792</v>
       </c>
       <c r="AE7" t="n">
-        <v>911104.6064885894</v>
+        <v>981591.8016292886</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.171202594057761e-06</v>
+        <v>3.690900510452696e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.406944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>824150.0615886643</v>
+        <v>887910.0577545349</v>
       </c>
     </row>
   </sheetData>
@@ -8571,28 +8571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1174.179623698063</v>
+        <v>1241.351396880121</v>
       </c>
       <c r="AB2" t="n">
-        <v>1606.564362292746</v>
+        <v>1698.471745769923</v>
       </c>
       <c r="AC2" t="n">
-        <v>1453.23611438277</v>
+        <v>1536.371986173708</v>
       </c>
       <c r="AD2" t="n">
-        <v>1174179.623698063</v>
+        <v>1241351.396880121</v>
       </c>
       <c r="AE2" t="n">
-        <v>1606564.362292746</v>
+        <v>1698471.745769923</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.554750320355742e-06</v>
+        <v>2.803582743627762e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.21111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1453236.11438277</v>
+        <v>1536371.986173708</v>
       </c>
     </row>
     <row r="3">
@@ -8677,28 +8677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>621.0727174615538</v>
+        <v>669.0281979213031</v>
       </c>
       <c r="AB3" t="n">
-        <v>849.7790918254126</v>
+        <v>915.3938958369247</v>
       </c>
       <c r="AC3" t="n">
-        <v>768.6773679740405</v>
+        <v>828.0299871816497</v>
       </c>
       <c r="AD3" t="n">
-        <v>621072.7174615538</v>
+        <v>669028.1979213031</v>
       </c>
       <c r="AE3" t="n">
-        <v>849779.0918254126</v>
+        <v>915393.8958369247</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.172800560259769e-06</v>
+        <v>3.918073581547936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.16805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>768677.3679740406</v>
+        <v>828029.9871816498</v>
       </c>
     </row>
     <row r="4">
@@ -8783,28 +8783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>574.7957864038183</v>
+        <v>622.8365182095882</v>
       </c>
       <c r="AB4" t="n">
-        <v>786.4609531581091</v>
+        <v>852.1924018222705</v>
       </c>
       <c r="AC4" t="n">
-        <v>711.4022235935789</v>
+        <v>770.8603550519002</v>
       </c>
       <c r="AD4" t="n">
-        <v>574795.7864038183</v>
+        <v>622836.5182095882</v>
       </c>
       <c r="AE4" t="n">
-        <v>786460.9531581091</v>
+        <v>852192.4018222706</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.239775888702393e-06</v>
+        <v>4.038845947767857e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.865277777777777</v>
       </c>
       <c r="AH4" t="n">
-        <v>711402.2235935789</v>
+        <v>770860.3550519003</v>
       </c>
     </row>
   </sheetData>
@@ -9080,28 +9080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>773.134020138153</v>
+        <v>828.5590917889897</v>
       </c>
       <c r="AB2" t="n">
-        <v>1057.836074618749</v>
+        <v>1133.671102833013</v>
       </c>
       <c r="AC2" t="n">
-        <v>956.8776843393906</v>
+        <v>1025.475123896016</v>
       </c>
       <c r="AD2" t="n">
-        <v>773134.020138153</v>
+        <v>828559.0917889897</v>
       </c>
       <c r="AE2" t="n">
-        <v>1057836.074618749</v>
+        <v>1133671.102833014</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.894290222205546e-06</v>
+        <v>3.534140058522565e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.15</v>
       </c>
       <c r="AH2" t="n">
-        <v>956877.6843393906</v>
+        <v>1025475.123896016</v>
       </c>
     </row>
     <row r="3">
@@ -9186,28 +9186,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>553.3172032618606</v>
+        <v>599.4905544132212</v>
       </c>
       <c r="AB3" t="n">
-        <v>757.0730081350704</v>
+        <v>820.2494242048487</v>
       </c>
       <c r="AC3" t="n">
-        <v>684.8190227972991</v>
+        <v>741.9659703860347</v>
       </c>
       <c r="AD3" t="n">
-        <v>553317.2032618606</v>
+        <v>599490.5544132212</v>
       </c>
       <c r="AE3" t="n">
-        <v>757073.0081350703</v>
+        <v>820249.4242048487</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.235994923297999e-06</v>
+        <v>4.171651807334876e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.29305555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>684819.0227972991</v>
+        <v>741965.9703860347</v>
       </c>
     </row>
   </sheetData>
@@ -16048,28 +16048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>562.3318303721878</v>
+        <v>607.1660331132023</v>
       </c>
       <c r="AB2" t="n">
-        <v>769.4072186447002</v>
+        <v>830.7513527803849</v>
       </c>
       <c r="AC2" t="n">
-        <v>695.9760735670628</v>
+        <v>751.4656096378707</v>
       </c>
       <c r="AD2" t="n">
-        <v>562331.8303721878</v>
+        <v>607166.0331132023</v>
       </c>
       <c r="AE2" t="n">
-        <v>769407.2186447001</v>
+        <v>830751.3527803848</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.15840869981368e-06</v>
+        <v>4.150699971323307e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.03055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>695976.0735670628</v>
+        <v>751465.6096378707</v>
       </c>
     </row>
     <row r="3">
@@ -16154,28 +16154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>537.6982109397758</v>
+        <v>591.4138059641605</v>
       </c>
       <c r="AB3" t="n">
-        <v>735.7024137786843</v>
+        <v>809.1984606558501</v>
       </c>
       <c r="AC3" t="n">
-        <v>665.4880079724688</v>
+        <v>731.9696952880277</v>
       </c>
       <c r="AD3" t="n">
-        <v>537698.2109397758</v>
+        <v>591413.8059641605</v>
       </c>
       <c r="AE3" t="n">
-        <v>735702.4137786843</v>
+        <v>809198.4606558501</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.199722058296333e-06</v>
+        <v>4.230147091733831e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.82361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>665488.0079724689</v>
+        <v>731969.6952880276</v>
       </c>
     </row>
   </sheetData>
@@ -16451,28 +16451,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>561.3581552490564</v>
+        <v>611.7706452582233</v>
       </c>
       <c r="AB2" t="n">
-        <v>768.074993385717</v>
+        <v>837.0515862583533</v>
       </c>
       <c r="AC2" t="n">
-        <v>694.7709940170072</v>
+        <v>757.1645576751351</v>
       </c>
       <c r="AD2" t="n">
-        <v>561358.1552490564</v>
+        <v>611770.6452582233</v>
       </c>
       <c r="AE2" t="n">
-        <v>768074.993385717</v>
+        <v>837051.5862583533</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.957480485717047e-06</v>
+        <v>4.037497921420792e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.05555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>694770.9940170072</v>
+        <v>757164.5576751351</v>
       </c>
     </row>
   </sheetData>
@@ -16748,28 +16748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1697.374556987393</v>
+        <v>1786.481249864508</v>
       </c>
       <c r="AB2" t="n">
-        <v>2322.422751750637</v>
+        <v>2444.342460054951</v>
       </c>
       <c r="AC2" t="n">
-        <v>2100.773983864359</v>
+        <v>2211.057846323495</v>
       </c>
       <c r="AD2" t="n">
-        <v>1697374.556987393</v>
+        <v>1786481.249864508</v>
       </c>
       <c r="AE2" t="n">
-        <v>2322422.751750636</v>
+        <v>2444342.460054951</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.286043244129154e-06</v>
+        <v>2.259527248389453e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.61666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2100773.983864359</v>
+        <v>2211057.846323495</v>
       </c>
     </row>
     <row r="3">
@@ -16854,28 +16854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>793.54351528783</v>
+        <v>852.9195302543826</v>
       </c>
       <c r="AB3" t="n">
-        <v>1085.761246285916</v>
+        <v>1167.00212944806</v>
       </c>
       <c r="AC3" t="n">
-        <v>982.1377168158676</v>
+        <v>1055.625084111312</v>
       </c>
       <c r="AD3" t="n">
-        <v>793543.51528783</v>
+        <v>852919.5302543826</v>
       </c>
       <c r="AE3" t="n">
-        <v>1085761.246285916</v>
+        <v>1167002.12944806</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.95922333423026e-06</v>
+        <v>3.442278111239879e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.90694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>982137.7168158676</v>
+        <v>1055625.084111312</v>
       </c>
     </row>
     <row r="4">
@@ -16960,28 +16960,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>619.0570347900519</v>
+        <v>668.6081646409889</v>
       </c>
       <c r="AB4" t="n">
-        <v>847.0211458686204</v>
+        <v>914.8191877722381</v>
       </c>
       <c r="AC4" t="n">
-        <v>766.1826365085632</v>
+        <v>827.510128448049</v>
       </c>
       <c r="AD4" t="n">
-        <v>619057.034790052</v>
+        <v>668608.1646409889</v>
       </c>
       <c r="AE4" t="n">
-        <v>847021.1458686204</v>
+        <v>914819.1877722382</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.198644641703934e-06</v>
+        <v>3.862931903833081e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.720833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>766182.6365085632</v>
+        <v>827510.1284480491</v>
       </c>
     </row>
     <row r="5">
@@ -17066,28 +17066,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>608.0326466643228</v>
+        <v>657.5837765152598</v>
       </c>
       <c r="AB5" t="n">
-        <v>831.9370916733195</v>
+        <v>899.7351335769373</v>
       </c>
       <c r="AC5" t="n">
-        <v>752.5381832750588</v>
+        <v>813.8656752145448</v>
       </c>
       <c r="AD5" t="n">
-        <v>608032.6466643228</v>
+        <v>657583.7765152599</v>
       </c>
       <c r="AE5" t="n">
-        <v>831937.0916733195</v>
+        <v>899735.1335769373</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.219417055912768e-06</v>
+        <v>3.899428216172465e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.629166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>752538.1832750589</v>
+        <v>813865.6752145448</v>
       </c>
     </row>
   </sheetData>
@@ -17363,28 +17363,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2766.862352222991</v>
+        <v>2879.61398586499</v>
       </c>
       <c r="AB2" t="n">
-        <v>3785.743135663752</v>
+        <v>3940.014895063755</v>
       </c>
       <c r="AC2" t="n">
-        <v>3424.437124119722</v>
+        <v>3563.985403324358</v>
       </c>
       <c r="AD2" t="n">
-        <v>2766862.352222991</v>
+        <v>2879613.98586499</v>
       </c>
       <c r="AE2" t="n">
-        <v>3785743.135663752</v>
+        <v>3940014.895063756</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.897274342688428e-07</v>
+        <v>1.692323615003533e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.80833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3424437.124119722</v>
+        <v>3563985.403324358</v>
       </c>
     </row>
     <row r="3">
@@ -17469,28 +17469,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1052.689235362347</v>
+        <v>1124.323901060113</v>
       </c>
       <c r="AB3" t="n">
-        <v>1440.33585319416</v>
+        <v>1538.349563100251</v>
       </c>
       <c r="AC3" t="n">
-        <v>1302.872220889376</v>
+        <v>1391.531639885135</v>
       </c>
       <c r="AD3" t="n">
-        <v>1052689.235362347</v>
+        <v>1124323.901060113</v>
       </c>
       <c r="AE3" t="n">
-        <v>1440335.85319416</v>
+        <v>1538349.563100251</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.719679218374538e-06</v>
+        <v>2.940459818248835e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.975</v>
       </c>
       <c r="AH3" t="n">
-        <v>1302872.220889376</v>
+        <v>1391531.639885135</v>
       </c>
     </row>
     <row r="4">
@@ -17575,28 +17575,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>807.5336261049474</v>
+        <v>858.7379086210045</v>
       </c>
       <c r="AB4" t="n">
-        <v>1104.903133106026</v>
+        <v>1174.96309141801</v>
       </c>
       <c r="AC4" t="n">
-        <v>999.4527288236728</v>
+        <v>1062.82626304413</v>
       </c>
       <c r="AD4" t="n">
-        <v>807533.6261049474</v>
+        <v>858737.9086210045</v>
       </c>
       <c r="AE4" t="n">
-        <v>1104903.133106026</v>
+        <v>1174963.091418009</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.990575401506998e-06</v>
+        <v>3.403662102085757e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.34583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>999452.7288236729</v>
+        <v>1062826.26304413</v>
       </c>
     </row>
     <row r="5">
@@ -17681,28 +17681,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>685.7453174586872</v>
+        <v>737.0348513207651</v>
       </c>
       <c r="AB5" t="n">
-        <v>938.2669962952368</v>
+        <v>1008.44359925987</v>
       </c>
       <c r="AC5" t="n">
-        <v>848.7201110348187</v>
+        <v>912.1991575059881</v>
       </c>
       <c r="AD5" t="n">
-        <v>685745.3174586871</v>
+        <v>737034.8513207651</v>
       </c>
       <c r="AE5" t="n">
-        <v>938266.9962952369</v>
+        <v>1008443.59925987</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.137366436701928e-06</v>
+        <v>3.654658413524483e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.634722222222223</v>
       </c>
       <c r="AH5" t="n">
-        <v>848720.1110348187</v>
+        <v>912199.157505988</v>
       </c>
     </row>
     <row r="6">
@@ -17787,28 +17787,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>653.2045526887315</v>
+        <v>704.3234943502172</v>
       </c>
       <c r="AB6" t="n">
-        <v>893.7432863397613</v>
+        <v>963.6864775295475</v>
       </c>
       <c r="AC6" t="n">
-        <v>808.4456814680744</v>
+        <v>871.7135926565926</v>
       </c>
       <c r="AD6" t="n">
-        <v>653204.5526887315</v>
+        <v>704323.4943502172</v>
       </c>
       <c r="AE6" t="n">
-        <v>893743.2863397613</v>
+        <v>963686.4775295474</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.179772735758241e-06</v>
+        <v>3.727168459051225e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.447222222222221</v>
       </c>
       <c r="AH6" t="n">
-        <v>808445.6814680744</v>
+        <v>871713.5926565926</v>
       </c>
     </row>
     <row r="7">
@@ -17893,28 +17893,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>655.8066071512903</v>
+        <v>706.925548812776</v>
       </c>
       <c r="AB7" t="n">
-        <v>897.3035320499754</v>
+        <v>967.2467232397613</v>
       </c>
       <c r="AC7" t="n">
-        <v>811.6661423245419</v>
+        <v>874.9340535130601</v>
       </c>
       <c r="AD7" t="n">
-        <v>655806.6071512903</v>
+        <v>706925.548812776</v>
       </c>
       <c r="AE7" t="n">
-        <v>897303.5320499754</v>
+        <v>967246.7232397613</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.179624461985317e-06</v>
+        <v>3.72691492742351e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.448611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>811666.1423245418</v>
+        <v>874934.0535130601</v>
       </c>
     </row>
   </sheetData>
@@ -18190,28 +18190,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>605.9281295976346</v>
+        <v>670.8609651310203</v>
       </c>
       <c r="AB2" t="n">
-        <v>829.0575985779361</v>
+        <v>917.9015687892427</v>
       </c>
       <c r="AC2" t="n">
-        <v>749.9335049593049</v>
+        <v>830.2983313469396</v>
       </c>
       <c r="AD2" t="n">
-        <v>605928.1295976345</v>
+        <v>670860.9651310203</v>
       </c>
       <c r="AE2" t="n">
-        <v>829057.5985779361</v>
+        <v>917901.5687892427</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.70765865354003e-06</v>
+        <v>3.660299025823464e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.49722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>749933.5049593048</v>
+        <v>830298.3313469396</v>
       </c>
     </row>
   </sheetData>
@@ -18487,28 +18487,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>891.8757582152373</v>
+        <v>957.4381251862213</v>
       </c>
       <c r="AB2" t="n">
-        <v>1220.303759171584</v>
+        <v>1310.009082068779</v>
       </c>
       <c r="AC2" t="n">
-        <v>1103.83968110333</v>
+        <v>1184.983653885429</v>
       </c>
       <c r="AD2" t="n">
-        <v>891875.7582152373</v>
+        <v>957438.1251862213</v>
       </c>
       <c r="AE2" t="n">
-        <v>1220303.759171584</v>
+        <v>1310009.08206878</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.769026133909943e-06</v>
+        <v>3.259311304564972e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.82083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1103839.68110333</v>
+        <v>1184983.653885429</v>
       </c>
     </row>
     <row r="3">
@@ -18593,28 +18593,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>560.5919069413598</v>
+        <v>607.397875470736</v>
       </c>
       <c r="AB3" t="n">
-        <v>767.0265786466368</v>
+        <v>831.0685697221255</v>
       </c>
       <c r="AC3" t="n">
-        <v>693.8226385091654</v>
+        <v>751.7525518399084</v>
       </c>
       <c r="AD3" t="n">
-        <v>560591.9069413597</v>
+        <v>607397.8754707361</v>
       </c>
       <c r="AE3" t="n">
-        <v>767026.5786466368</v>
+        <v>831068.5697221255</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.243738491638754e-06</v>
+        <v>4.133936797260474e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.10833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>693822.6385091654</v>
+        <v>751752.5518399084</v>
       </c>
     </row>
     <row r="4">
@@ -18699,28 +18699,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>564.5873607754821</v>
+        <v>611.3933293048584</v>
       </c>
       <c r="AB4" t="n">
-        <v>772.493334849466</v>
+        <v>836.5353259249545</v>
       </c>
       <c r="AC4" t="n">
-        <v>698.7676551726371</v>
+        <v>756.6975685033801</v>
       </c>
       <c r="AD4" t="n">
-        <v>564587.3607754821</v>
+        <v>611393.3293048585</v>
       </c>
       <c r="AE4" t="n">
-        <v>772493.334849466</v>
+        <v>836535.3259249545</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.242758693170789e-06</v>
+        <v>4.132131584685251e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.1125</v>
       </c>
       <c r="AH4" t="n">
-        <v>698767.6551726371</v>
+        <v>756697.5685033802</v>
       </c>
     </row>
   </sheetData>
@@ -18996,28 +18996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1325.747826268594</v>
+        <v>1403.372599341241</v>
       </c>
       <c r="AB2" t="n">
-        <v>1813.946663766918</v>
+        <v>1920.156302848209</v>
       </c>
       <c r="AC2" t="n">
-        <v>1640.826140067136</v>
+        <v>1736.899280260673</v>
       </c>
       <c r="AD2" t="n">
-        <v>1325747.826268594</v>
+        <v>1403372.599341241</v>
       </c>
       <c r="AE2" t="n">
-        <v>1813946.663766918</v>
+        <v>1920156.302848209</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.458868985373422e-06</v>
+        <v>2.606162976619481e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.96805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1640826.140067136</v>
+        <v>1736899.280260673</v>
       </c>
     </row>
     <row r="3">
@@ -19102,28 +19102,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>678.7119968053426</v>
+        <v>727.1955666638338</v>
       </c>
       <c r="AB3" t="n">
-        <v>928.6436966891226</v>
+        <v>994.9810559136533</v>
       </c>
       <c r="AC3" t="n">
-        <v>840.0152456367261</v>
+        <v>900.0214604019362</v>
       </c>
       <c r="AD3" t="n">
-        <v>678711.9968053425</v>
+        <v>727195.5666638338</v>
       </c>
       <c r="AE3" t="n">
-        <v>928643.6966891226</v>
+        <v>994981.0559136533</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.096878506080971e-06</v>
+        <v>3.745920424525707e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.41388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>840015.2456367261</v>
+        <v>900021.4604019362</v>
       </c>
     </row>
     <row r="4">
@@ -19208,28 +19208,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>583.7773971728267</v>
+        <v>632.3462183773385</v>
       </c>
       <c r="AB4" t="n">
-        <v>798.7499892529684</v>
+        <v>865.2039931301483</v>
       </c>
       <c r="AC4" t="n">
-        <v>722.518411331315</v>
+        <v>782.6301383472374</v>
       </c>
       <c r="AD4" t="n">
-        <v>583777.3971728267</v>
+        <v>632346.2183773385</v>
       </c>
       <c r="AE4" t="n">
-        <v>798749.9892529683</v>
+        <v>865203.9931301483</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.23554888490405e-06</v>
+        <v>3.993644936367326e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.768055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>722518.4113313149</v>
+        <v>782630.1383472375</v>
       </c>
     </row>
   </sheetData>
